--- a/parameters/ModelG_Bevacizumab_VEGFR2_Params.xlsx
+++ b/parameters/ModelG_Bevacizumab_VEGFR2_Params.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/GitHub/TMDD_EndogenousLigand/parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96F6E9D-D6FD-1E47-8E18-EAC75FCC2991}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D10ECAF-D10D-D940-AA19-D4A1DFAD7C59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="800" windowWidth="28560" windowHeight="16340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="keDT">Sheet1!$F$20</definedName>
+    <definedName name="keTL">Sheet1!$E$28</definedName>
+    <definedName name="keTLn">Sheet1!$F$28</definedName>
+    <definedName name="koff_DT">Sheet1!$F$24</definedName>
+    <definedName name="koff_TL">Sheet1!$F$32</definedName>
+    <definedName name="kon_DT">Sheet1!$F$25</definedName>
+    <definedName name="kon_TL">Sheet1!$F$33</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -34,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="97">
   <si>
     <t>Order</t>
   </si>
@@ -240,9 +249,6 @@
     <t xml:space="preserve">calculated </t>
   </si>
   <si>
-    <t>=Kd * Kon</t>
-  </si>
-  <si>
     <t>Association Rate</t>
   </si>
   <si>
@@ -273,9 +279,6 @@
     <t>L0</t>
   </si>
   <si>
-    <t>calculated from literature</t>
-  </si>
-  <si>
     <t xml:space="preserve">spratlin et al </t>
   </si>
   <si>
@@ -319,54 +322,80 @@
   </si>
   <si>
     <t>Km</t>
+  </si>
+  <si>
+    <t>calculated</t>
+  </si>
+  <si>
+    <t>Kss_TL</t>
+  </si>
+  <si>
+    <t>Equilibrium Constant</t>
+  </si>
+  <si>
+    <t>Kss_DT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="8"/>
       <color rgb="FF642A8F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +406,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -399,31 +434,545 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -702,7 +1251,7 @@
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -713,7 +1262,7 @@
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -771,7 +1320,7 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -797,7 +1346,7 @@
       <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -823,7 +1372,7 @@
       <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -852,7 +1401,7 @@
       <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -881,7 +1430,7 @@
       <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -889,11 +1438,37 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F7" s="2"/>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -902,30 +1477,58 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2">
-        <v>3.1</v>
+        <f>F4/F5</f>
+        <v>5.5727554179566562E-2</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F9" s="2"/>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2">
+        <f>F6/F5</f>
+        <v>0.42724458204334365</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -934,88 +1537,86 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2">
-        <f>F4/F5</f>
-        <v>5.5727554179566562E-2</v>
+        <f>F6/F7</f>
+        <v>0.44516129032258062</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="I10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="2">
-        <f>F6/F5</f>
-        <v>0.42724458204334365</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="2">
-        <f>F6/F8</f>
-        <v>0.44516129032258062</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>40</v>
+      <c r="D12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>10</v>
@@ -1024,30 +1625,24 @@
         <v>11</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F13" s="13">
         <v>0</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="8" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>88</v>
+        <v>55</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>10</v>
@@ -1056,175 +1651,169 @@
         <v>11</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F14" s="13">
         <v>1</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="2">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="8" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>12</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="8" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>13</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="13">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="8" t="e">
-        <v>#NAME?</v>
+      <c r="J15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="6">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
-        <v>11</v>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="2">
-        <v>150</v>
+        <v>49</v>
+      </c>
+      <c r="F17" s="7">
+        <v>152</v>
       </c>
       <c r="G17" t="s">
         <v>44</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>23</v>
+      <c r="J17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="6">
-        <v>38</v>
+        <v>54</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.4E-2</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="7">
-        <v>152</v>
+        <v>57</v>
+      </c>
+      <c r="F19" s="2">
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
@@ -1233,18 +1822,18 @@
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F20" s="2">
-        <v>1.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -1253,7 +1842,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
@@ -1262,85 +1851,88 @@
         <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F21" s="2">
-        <v>7</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F22" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="23" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>24.5</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" t="s">
-        <v>60</v>
+      <c r="D23" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="F23" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G23" t="s">
+        <f>(koff_DT+keDT)/kon_DT</f>
+        <v>18.035</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="H23" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="19" t="str">
+        <f t="shared" ref="I23" ca="1" si="0">_xlfn.IFNA(_xlfn.FORMULATEXT(F23),"")</f>
+        <v>=(koff_DT+keDT)/kon_DT</v>
+      </c>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
@@ -1349,27 +1941,28 @@
         <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F24" s="2">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
         <v>18</v>
       </c>
-      <c r="G24" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>56</v>
+      <c r="H24" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="19" t="str">
+        <f t="shared" ref="I24:I25" ca="1" si="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F24),"")</f>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
@@ -1378,91 +1971,95 @@
         <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F25" s="2">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2</v>
+        <v>73</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.03</v>
       </c>
       <c r="G26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H26" t="s">
-        <v>33</v>
-      </c>
       <c r="J26" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="8">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="G27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
         <v>31</v>
@@ -1470,105 +2067,108 @@
       <c r="E28" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="8">
-        <v>3</v>
+      <c r="F28" s="9">
+        <v>6</v>
       </c>
       <c r="G28" t="s">
         <v>18</v>
       </c>
-      <c r="H28" t="s">
-        <v>72</v>
+      <c r="H28" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="9">
-        <v>6</v>
+      <c r="F29" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" t="s">
-        <v>72</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>79</v>
+      </c>
+      <c r="F30" s="14">
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="G30" t="s">
         <v>61</v>
       </c>
-      <c r="H30" t="s">
-        <v>79</v>
-      </c>
-      <c r="J30" s="10" t="s">
+      <c r="H30" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="31" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>31.5</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" t="s">
-        <v>81</v>
+      <c r="C31" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="F31" s="14">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="G31" t="s">
+        <f>(koff_TL+keTLn)/kon_TL</f>
+        <v>9.3384502923976626E-2</v>
+      </c>
+      <c r="G31" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="H31" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="19" t="str">
+        <f t="shared" ref="I31" ca="1" si="2">_xlfn.IFNA(_xlfn.FORMULATEXT(F31),"")</f>
+        <v>=(koff_TL+keTLn)/kon_TL</v>
+      </c>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -1578,13 +2178,13 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F32" s="14">
         <f>0.00135*3600*24</f>
@@ -1593,11 +2193,11 @@
       <c r="G32" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1608,26 +2208,26 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F33" s="14">
         <f>15200000*3600*24/1000000000</f>
         <v>1313.28</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4530,9 +5130,199 @@
       <c r="F999" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="H2:H20 H22:H33">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H20 H22:H33">
+    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H20 H22:H33">
+    <cfRule type="containsText" dxfId="46" priority="43" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="46" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="47" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H20 H22:H33">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="37" priority="34" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="37" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="38" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",I31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",I31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",I31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",I31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",I31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",I31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",I31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="29" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",I31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",I24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",I24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",I24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",I24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",I24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",I24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",I24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",I24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",I25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",I25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",I25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",I25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",I25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",I25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",I25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",I25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",I23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",I23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",I23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",I23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",I23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",I23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",I23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",I23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J31" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J30" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="J32" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="J33" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>

--- a/parameters/ModelG_Bevacizumab_VEGFR2_Params.xlsx
+++ b/parameters/ModelG_Bevacizumab_VEGFR2_Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D10ECAF-D10D-D940-AA19-D4A1DFAD7C59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864C51B3-570F-5B4F-B6C5-100E8BB237D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="800" windowWidth="28560" windowHeight="16340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2880" windowWidth="28560" windowHeight="16340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
